--- a/KT2/2.4 Taakverdeling voor het realiseren van een applicatie/Weekverslag week 3 teun.xlsx
+++ b/KT2/2.4 Taakverdeling voor het realiseren van een applicatie/Weekverslag week 3 teun.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Users\Teun\School\MED Leerjaar 3 Periode_11\Project\KT2\Weekverslagen\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Users\Teun\School\MED Leerjaar 3 Periode_11\Project\KT2\2.4 Taakverdeling voor het realiseren van een applicatie\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="39">
   <si>
     <t xml:space="preserve">Maandag 6 maart: </t>
   </si>
@@ -117,6 +117,33 @@
   </si>
   <si>
     <t>Ervoor zorgen dat je de klas kan inzien en en daar weer het rooster van die klas kan zien en de leerlingen van de klas</t>
+  </si>
+  <si>
+    <t>Maandag 27 maart:</t>
+  </si>
+  <si>
+    <t>Admin kan de klassen zien en het rooster daarvan</t>
+  </si>
+  <si>
+    <t>Documentatie netje gemaakt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dinsdag 28 maart: </t>
+  </si>
+  <si>
+    <t>Documentatie over de database gemaakt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Woensdag 29 maart: </t>
+  </si>
+  <si>
+    <t>Materialen en middellijst maken</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Donderdag 30 maart: </t>
+  </si>
+  <si>
+    <t>Alle goede documentatie maken</t>
   </si>
 </sst>
 </file>
@@ -462,10 +489,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D33"/>
+  <dimension ref="A1:D42"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D34" sqref="D34"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="D42" sqref="D42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -596,6 +623,43 @@
         <v>29</v>
       </c>
     </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>30</v>
+      </c>
+      <c r="D35" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D36" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>33</v>
+      </c>
+      <c r="D38" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>35</v>
+      </c>
+      <c r="D40" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>37</v>
+      </c>
+      <c r="D42" t="s">
+        <v>38</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
